--- a/earlywarning-pom/Document/test/CORPORATE/Unit Test_Rapporto avanzamento non regression test App2.0_Corporate.xlsx
+++ b/earlywarning-pom/Document/test/CORPORATE/Unit Test_Rapporto avanzamento non regression test App2.0_Corporate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilaria.cutano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\Document\test\CORPORATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="84" windowWidth="20124" windowHeight="8004" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="84" windowWidth="20124" windowHeight="8004" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Copertina" sheetId="4" r:id="rId1"/>
@@ -242,7 +242,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="133">
   <si>
     <t>Applicazione</t>
   </si>
@@ -509,12 +509,6 @@
     <t>standard (giro notturno)</t>
   </si>
   <si>
-    <t>Totale complessivo</t>
-  </si>
-  <si>
-    <t>Etichette di riga</t>
-  </si>
-  <si>
     <t>Matrice di Rischio</t>
   </si>
   <si>
@@ -641,19 +635,13 @@
     <t>Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>EWS App-CORPORATE_W00</t>
-  </si>
-  <si>
     <t>per indicatori</t>
   </si>
   <si>
-    <t>Business Rules</t>
+    <t>Grand Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 </t>
+    <t>Row Labels</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1299,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1549,6 +1537,10 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1651,871 +1643,13 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="203">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <top/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <right/>
-        <bottom/>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="3"/>
-        </left>
-        <right style="thin">
-          <color theme="3"/>
-        </right>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-        <bottom style="thin">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <right style="medium">
-          <color theme="3"/>
-        </right>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCCCCFF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="0.79998168889431442"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
+  <dxfs count="102">
     <dxf>
       <border>
         <top style="medium">
@@ -3357,6 +2491,11 @@
     <dxf>
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -9423,7 +8562,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42898.779347685188" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="84">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42899.418693287036" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -9432,7 +8571,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="83"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="78"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -9484,7 +8623,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Cutano, Ilaria" refreshedDate="42898.779347800926" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="84">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42899.41869421296" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="81">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -9493,7 +8632,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="83"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="78"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -9538,7 +8677,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="84">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
   <r>
     <s v="EWS App-CORPORATE_W01"/>
     <n v="1"/>
@@ -10276,7 +9415,7 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
+    <s v="Ok"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -10290,7 +9429,7 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
-    <m/>
+    <s v="Ok"/>
     <m/>
     <x v="0"/>
     <x v="0"/>
@@ -10632,68 +9771,26 @@
     <x v="0"/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="79"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="80"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="81"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="82"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="83"/>
-    <s v="BR"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="per ogni sndg verrà verif punt l'uguaglian ztr aprima e dopo "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -10719,7 +9816,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="84">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="81">
   <r>
     <s v="EWS App-CORPORATE_W01"/>
     <n v="1"/>
@@ -11405,7 +10502,7 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -11418,7 +10515,7 @@
     <s v="Per ogni sndg sarà verificata puntualmente l'uguaglianza tra prima e dopo l'introduzione della nuova app 2.0 (EXCEPTION vs MODULE)"/>
     <s v="Non ci siano differenze in termini di colore "/>
     <s v="confronto sulla tabella finale"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <m/>
   </r>
@@ -11735,11 +10832,11 @@
     <m/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="79"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -11748,51 +10845,12 @@
     <m/>
   </r>
   <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="80"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Segment"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="81"/>
-    <s v="Final Score"/>
-    <m/>
-    <s v="numerosità controparti per Final Score e segment"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="82"/>
-    <s v="Modulo HighPriority"/>
-    <m/>
-    <s v="colore HighPriority"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="EWS App-CORPORATE_W00"/>
-    <n v="83"/>
-    <s v="BR"/>
-    <m/>
-    <s v="colore matrice di rischio"/>
-    <s v="per ogni sndg verrà verif punt l'uguaglian ztr aprima e dopo "/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <m/>
     <m/>
     <x v="1"/>
@@ -11864,107 +10922,107 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="130">
+    <format dxfId="28">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="127">
+    <format dxfId="25">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="18">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="118">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="117">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="116">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="11">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="110">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="106">
+    <format dxfId="4">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="104">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="103">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12023,96 +11081,96 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
   </dataFields>
   <formats count="28">
-    <format dxfId="158">
+    <format dxfId="56">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="55">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="54">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="155">
+    <format dxfId="53">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="153">
+    <format dxfId="51">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="149">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="148">
+    <format dxfId="46">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="147">
+    <format dxfId="45">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="146">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="145">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="144">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="143">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="142">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="36">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="11" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="134">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="31">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12171,160 +11229,160 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="44">
-    <format dxfId="202">
+    <format dxfId="100">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="201">
+    <format dxfId="99">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="98">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="97">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="198">
+    <format dxfId="96">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="197">
+    <format dxfId="95">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="196">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="195">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="194">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="193">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="192">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="191">
+    <format dxfId="89">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="190">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="189">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="188">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="187">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="186">
+    <format dxfId="84">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="185">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="184">
+    <format dxfId="82">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="183">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="182">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="181">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="180">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="179">
+    <format dxfId="77">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="178">
+    <format dxfId="76">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="177">
+    <format dxfId="75">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="176">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="175">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="174">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="173">
+    <format dxfId="71">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="172">
+    <format dxfId="70">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="69">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="68">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="167">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="165">
+    <format dxfId="63">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="61">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="8" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -12338,7 +11396,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12661,8 +11719,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13020,80 +12078,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="99"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="103"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="103"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="103"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -13219,161 +12277,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="95" t="s">
+      <c r="B37" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96" t="s">
+      <c r="C37" s="96"/>
+      <c r="D37" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="95" t="s">
+      <c r="B38" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="95"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="96"/>
+      <c r="D38" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="95" t="s">
+      <c r="B39" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="95"/>
-      <c r="D39" s="96" t="s">
+      <c r="C39" s="96"/>
+      <c r="D39" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="95" t="s">
+      <c r="B40" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="95"/>
-      <c r="D40" s="96" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96" t="s">
+      <c r="C41" s="96"/>
+      <c r="D41" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="106" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="107"/>
-      <c r="F42" s="96" t="s">
+      <c r="E42" s="108"/>
+      <c r="F42" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96" t="s">
+      <c r="G42" s="97"/>
+      <c r="H42" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="96" t="s">
+      <c r="C43" s="96"/>
+      <c r="D43" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="95"/>
-      <c r="D44" s="110">
-        <v>42879</v>
-      </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="96" t="s">
+      <c r="C44" s="96"/>
+      <c r="D44" s="111">
+        <v>42899</v>
+      </c>
+      <c r="E44" s="112"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="110">
-        <v>42879</v>
-      </c>
-      <c r="K44" s="107"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="111">
+        <v>42899</v>
+      </c>
+      <c r="K44" s="108"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -13424,35 +12482,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="108"/>
-      <c r="D48" s="108"/>
-      <c r="E48" s="108"/>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-      <c r="J48" s="108"/>
-      <c r="K48" s="108"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="109"/>
+      <c r="J48" s="109"/>
+      <c r="K48" s="109"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="109" t="s">
+      <c r="B49" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -13539,13 +12597,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:Q88"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
+      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13570,38 +12628,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="114" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="62" t="s">
@@ -13649,7 +12707,7 @@
     </row>
     <row r="4" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="80">
         <v>1</v>
@@ -13685,7 +12743,7 @@
     </row>
     <row r="5" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B5" s="80">
         <v>2</v>
@@ -13718,7 +12776,7 @@
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="80">
         <v>3</v>
@@ -13728,10 +12786,10 @@
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G6" s="82" t="s">
         <v>58</v>
@@ -13748,23 +12806,23 @@
     </row>
     <row r="7" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="80">
         <v>4</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>59</v>
@@ -13778,23 +12836,23 @@
     </row>
     <row r="8" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="80">
         <v>5</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G8" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>59</v>
@@ -13808,23 +12866,23 @@
     </row>
     <row r="9" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="80">
         <v>6</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="81"/>
       <c r="E9" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G9" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>59</v>
@@ -13838,23 +12896,23 @@
     </row>
     <row r="10" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B10" s="80">
         <v>7</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D10" s="81"/>
       <c r="E10" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G10" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>59</v>
@@ -13868,23 +12926,23 @@
     </row>
     <row r="11" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B11" s="80">
         <v>8</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="81"/>
       <c r="E11" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>59</v>
@@ -13898,23 +12956,23 @@
     </row>
     <row r="12" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="80">
         <v>9</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="72"/>
       <c r="E12" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G12" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12" s="63" t="s">
         <v>59</v>
@@ -13928,23 +12986,23 @@
     </row>
     <row r="13" spans="1:17" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="80">
         <v>10</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D13" s="81"/>
       <c r="E13" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F13" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G13" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>59</v>
@@ -13958,23 +13016,23 @@
     </row>
     <row r="14" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="80">
         <v>11</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" s="81"/>
       <c r="E14" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G14" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>59</v>
@@ -13988,23 +13046,23 @@
     </row>
     <row r="15" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="80">
         <v>12</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="81"/>
       <c r="E15" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F15" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G15" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>59</v>
@@ -14018,23 +13076,23 @@
     </row>
     <row r="16" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="80">
         <v>13</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="72"/>
       <c r="E16" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F16" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G16" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>59</v>
@@ -14048,23 +13106,23 @@
     </row>
     <row r="17" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="80">
         <v>14</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="72"/>
       <c r="E17" s="69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H17" s="63" t="s">
         <v>59</v>
@@ -14078,23 +13136,23 @@
     </row>
     <row r="18" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="80">
         <v>15</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D18" s="72"/>
       <c r="E18" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F18" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G18" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="63" t="s">
         <v>59</v>
@@ -14108,23 +13166,23 @@
     </row>
     <row r="19" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B19" s="80">
         <v>16</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="65"/>
       <c r="E19" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F19" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G19" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H19" s="63" t="s">
         <v>59</v>
@@ -14138,23 +13196,23 @@
     </row>
     <row r="20" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="80">
         <v>17</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="81"/>
       <c r="E20" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F20" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G20" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>59</v>
@@ -14168,23 +13226,23 @@
     </row>
     <row r="21" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="80">
         <v>18</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G21" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>59</v>
@@ -14198,23 +13256,23 @@
     </row>
     <row r="22" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B22" s="80">
         <v>19</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G22" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>59</v>
@@ -14228,23 +13286,23 @@
     </row>
     <row r="23" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B23" s="80">
         <v>20</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G23" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" s="63" t="s">
         <v>59</v>
@@ -14258,23 +13316,23 @@
     </row>
     <row r="24" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" s="80">
         <v>21</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G24" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H24" s="63" t="s">
         <v>59</v>
@@ -14288,23 +13346,23 @@
     </row>
     <row r="25" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25" s="80">
         <v>22</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F25" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G25" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H25" s="63" t="s">
         <v>59</v>
@@ -14318,23 +13376,23 @@
     </row>
     <row r="26" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B26" s="80">
         <v>23</v>
       </c>
       <c r="C26" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" s="87"/>
       <c r="E26" s="87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26" s="88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G26" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H26" s="86" t="s">
         <v>59</v>
@@ -14348,7 +13406,7 @@
     </row>
     <row r="27" spans="1:12" s="66" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A27" s="83" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B27" s="80">
         <v>24</v>
@@ -14378,7 +13436,7 @@
     </row>
     <row r="28" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B28" s="80">
         <v>25</v>
@@ -14408,7 +13466,7 @@
     </row>
     <row r="29" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B29" s="80">
         <v>26</v>
@@ -14418,10 +13476,10 @@
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G29" s="82" t="s">
         <v>58</v>
@@ -14438,23 +13496,23 @@
     </row>
     <row r="30" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B30" s="80">
         <v>27</v>
       </c>
       <c r="C30" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F30" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G30" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H30" s="63" t="s">
         <v>59</v>
@@ -14468,23 +13526,23 @@
     </row>
     <row r="31" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" s="80">
         <v>28</v>
       </c>
       <c r="C31" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F31" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G31" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="63" t="s">
         <v>59</v>
@@ -14498,23 +13556,23 @@
     </row>
     <row r="32" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="80">
         <v>29</v>
       </c>
       <c r="C32" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="81"/>
       <c r="E32" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F32" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>59</v>
@@ -14528,23 +13586,23 @@
     </row>
     <row r="33" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B33" s="80">
         <v>30</v>
       </c>
       <c r="C33" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="81"/>
       <c r="E33" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F33" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G33" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>59</v>
@@ -14558,23 +13616,23 @@
     </row>
     <row r="34" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="80">
         <v>31</v>
       </c>
       <c r="C34" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="81"/>
       <c r="E34" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F34" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H34" s="63" t="s">
         <v>59</v>
@@ -14588,23 +13646,23 @@
     </row>
     <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B35" s="80">
         <v>32</v>
       </c>
       <c r="C35" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F35" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G35" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H35" s="63" t="s">
         <v>59</v>
@@ -14618,23 +13676,23 @@
     </row>
     <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B36" s="80">
         <v>33</v>
       </c>
       <c r="C36" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D36" s="81"/>
       <c r="E36" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G36" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H36" s="63" t="s">
         <v>59</v>
@@ -14648,23 +13706,23 @@
     </row>
     <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" s="80">
         <v>34</v>
       </c>
       <c r="C37" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="81"/>
       <c r="E37" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F37" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" s="63" t="s">
         <v>59</v>
@@ -14678,23 +13736,23 @@
     </row>
     <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="80">
         <v>35</v>
       </c>
       <c r="C38" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D38" s="81"/>
       <c r="E38" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F38" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G38" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H38" s="63" t="s">
         <v>59</v>
@@ -14708,23 +13766,23 @@
     </row>
     <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B39" s="80">
         <v>36</v>
       </c>
       <c r="C39" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F39" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="63" t="s">
         <v>59</v>
@@ -14738,22 +13796,22 @@
     </row>
     <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="80">
         <v>37</v>
       </c>
       <c r="C40" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E40" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G40" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H40" s="63" t="s">
         <v>59</v>
@@ -14767,23 +13825,23 @@
     </row>
     <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="80">
         <v>38</v>
       </c>
       <c r="C41" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="81"/>
       <c r="E41" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F41" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H41" s="63" t="s">
         <v>59</v>
@@ -14797,23 +13855,23 @@
     </row>
     <row r="42" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="80">
         <v>39</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F42" s="88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G42" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H42" s="86" t="s">
         <v>59</v>
@@ -14827,7 +13885,7 @@
     </row>
     <row r="43" spans="1:12" s="66" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A43" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="80">
         <v>40</v>
@@ -14857,7 +13915,7 @@
     </row>
     <row r="44" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B44" s="80">
         <v>41</v>
@@ -14887,7 +13945,7 @@
     </row>
     <row r="45" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="80">
         <v>42</v>
@@ -14897,10 +13955,10 @@
       </c>
       <c r="D45" s="72"/>
       <c r="E45" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F45" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G45" s="82" t="s">
         <v>58</v>
@@ -14917,23 +13975,23 @@
     </row>
     <row r="46" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B46" s="80">
         <v>43</v>
       </c>
       <c r="C46" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46" s="72"/>
       <c r="E46" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F46" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G46" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H46" s="63" t="s">
         <v>59</v>
@@ -14947,23 +14005,23 @@
     </row>
     <row r="47" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B47" s="80">
         <v>44</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" s="72"/>
       <c r="E47" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F47" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G47" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H47" s="63" t="s">
         <v>59</v>
@@ -14977,23 +14035,23 @@
     </row>
     <row r="48" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" s="80">
         <v>45</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="81"/>
       <c r="E48" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F48" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G48" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H48" s="63" t="s">
         <v>59</v>
@@ -15007,23 +14065,23 @@
     </row>
     <row r="49" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" s="80">
         <v>46</v>
       </c>
       <c r="C49" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="81"/>
       <c r="E49" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F49" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G49" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H49" s="63" t="s">
         <v>59</v>
@@ -15037,23 +14095,23 @@
     </row>
     <row r="50" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B50" s="80">
         <v>47</v>
       </c>
       <c r="C50" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D50" s="81"/>
       <c r="E50" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F50" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G50" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H50" s="63" t="s">
         <v>59</v>
@@ -15067,23 +14125,23 @@
     </row>
     <row r="51" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51" s="80">
         <v>48</v>
       </c>
       <c r="C51" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F51" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G51" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H51" s="63" t="s">
         <v>59</v>
@@ -15097,23 +14155,23 @@
     </row>
     <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B52" s="80">
         <v>49</v>
       </c>
       <c r="C52" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D52" s="81"/>
       <c r="E52" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G52" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H52" s="63" t="s">
         <v>59</v>
@@ -15127,23 +14185,23 @@
     </row>
     <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B53" s="80">
         <v>50</v>
       </c>
       <c r="C53" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D53" s="81"/>
       <c r="E53" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G53" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H53" s="63" t="s">
         <v>59</v>
@@ -15157,23 +14215,23 @@
     </row>
     <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B54" s="80">
         <v>51</v>
       </c>
       <c r="C54" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D54" s="81"/>
       <c r="E54" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G54" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H54" s="63" t="s">
         <v>59</v>
@@ -15187,23 +14245,23 @@
     </row>
     <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" s="80">
         <v>52</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="72"/>
       <c r="E55" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F55" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G55" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H55" s="63" t="s">
         <v>59</v>
@@ -15217,78 +14275,82 @@
     </row>
     <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B56" s="80">
         <v>53</v>
       </c>
       <c r="C56" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E56" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G56" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H56" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="93"/>
+      <c r="I56" s="93" t="s">
+        <v>37</v>
+      </c>
       <c r="J56" s="94"/>
       <c r="K56" s="92"/>
       <c r="L56" s="94"/>
     </row>
     <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="83" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B57" s="80">
         <v>54</v>
       </c>
       <c r="C57" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D57" s="81"/>
       <c r="E57" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F57" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G57" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H57" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="93"/>
+      <c r="I57" s="93" t="s">
+        <v>37</v>
+      </c>
       <c r="J57" s="94"/>
       <c r="K57" s="92"/>
       <c r="L57" s="94"/>
     </row>
     <row r="58" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" s="80">
         <v>55</v>
       </c>
       <c r="C58" s="87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D58" s="87"/>
       <c r="E58" s="87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" s="88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G58" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H58" s="86" t="s">
         <v>59</v>
@@ -15302,7 +14364,7 @@
     </row>
     <row r="59" spans="1:12" s="66" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A59" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B59" s="80">
         <v>56</v>
@@ -15332,7 +14394,7 @@
     </row>
     <row r="60" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" s="80">
         <v>57</v>
@@ -15362,7 +14424,7 @@
     </row>
     <row r="61" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" s="80">
         <v>58</v>
@@ -15372,10 +14434,10 @@
       </c>
       <c r="D61" s="72"/>
       <c r="E61" s="69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F61" s="82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G61" s="82" t="s">
         <v>58</v>
@@ -15392,23 +14454,23 @@
     </row>
     <row r="62" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B62" s="80">
         <v>59</v>
       </c>
       <c r="C62" s="69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D62" s="72"/>
       <c r="E62" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F62" s="82" t="s">
         <v>56</v>
       </c>
       <c r="G62" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H62" s="63" t="s">
         <v>59</v>
@@ -15422,23 +14484,23 @@
     </row>
     <row r="63" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B63" s="80">
         <v>60</v>
       </c>
       <c r="C63" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D63" s="72"/>
       <c r="E63" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G63" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H63" s="63" t="s">
         <v>59</v>
@@ -15452,23 +14514,23 @@
     </row>
     <row r="64" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" s="80">
         <v>61</v>
       </c>
       <c r="C64" s="69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D64" s="81"/>
       <c r="E64" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F64" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G64" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H64" s="63" t="s">
         <v>59</v>
@@ -15482,23 +14544,23 @@
     </row>
     <row r="65" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B65" s="80">
         <v>62</v>
       </c>
       <c r="C65" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D65" s="81"/>
       <c r="E65" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F65" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G65" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H65" s="63" t="s">
         <v>59</v>
@@ -15512,23 +14574,23 @@
     </row>
     <row r="66" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B66" s="80">
         <v>63</v>
       </c>
       <c r="C66" s="69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" s="81"/>
       <c r="E66" s="69" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F66" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G66" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H66" s="63" t="s">
         <v>59</v>
@@ -15542,23 +14604,23 @@
     </row>
     <row r="67" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B67" s="80">
         <v>64</v>
       </c>
       <c r="C67" s="69" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" s="72"/>
       <c r="E67" s="69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F67" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G67" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H67" s="63" t="s">
         <v>59</v>
@@ -15572,23 +14634,23 @@
     </row>
     <row r="68" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="80">
         <v>65</v>
       </c>
       <c r="C68" s="69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D68" s="81"/>
       <c r="E68" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F68" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G68" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H68" s="63" t="s">
         <v>59</v>
@@ -15602,23 +14664,23 @@
     </row>
     <row r="69" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B69" s="80">
         <v>66</v>
       </c>
       <c r="C69" s="69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" s="81"/>
       <c r="E69" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F69" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G69" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H69" s="63" t="s">
         <v>59</v>
@@ -15632,23 +14694,23 @@
     </row>
     <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="80">
         <v>67</v>
       </c>
       <c r="C70" s="69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D70" s="81"/>
       <c r="E70" s="69" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F70" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G70" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H70" s="63" t="s">
         <v>59</v>
@@ -15662,23 +14724,23 @@
     </row>
     <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B71" s="80">
         <v>68</v>
       </c>
       <c r="C71" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D71" s="72"/>
       <c r="E71" s="69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F71" s="82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G71" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H71" s="63" t="s">
         <v>59</v>
@@ -15692,23 +14754,23 @@
     </row>
     <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B72" s="80">
         <v>69</v>
       </c>
       <c r="C72" s="69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D72" s="72"/>
       <c r="E72" s="69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F72" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G72" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H72" s="63" t="s">
         <v>59</v>
@@ -15722,23 +14784,23 @@
     </row>
     <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B73" s="80">
         <v>70</v>
       </c>
       <c r="C73" s="69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D73" s="72"/>
       <c r="E73" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F73" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G73" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H73" s="63" t="s">
         <v>59</v>
@@ -15752,22 +14814,22 @@
     </row>
     <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B74" s="80">
         <v>71</v>
       </c>
       <c r="C74" s="69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E74" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F74" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G74" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H74" s="63" t="s">
         <v>59</v>
@@ -15781,23 +14843,23 @@
     </row>
     <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" s="80">
         <v>72</v>
       </c>
       <c r="C75" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D75" s="81"/>
       <c r="E75" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F75" s="82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G75" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H75" s="63" t="s">
         <v>59</v>
@@ -15811,23 +14873,23 @@
     </row>
     <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B76" s="80">
         <v>73</v>
       </c>
       <c r="C76" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D76" s="69"/>
       <c r="E76" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F76" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G76" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H76" s="63" t="s">
         <v>59</v>
@@ -15841,23 +14903,23 @@
     </row>
     <row r="77" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B77" s="80">
         <v>74</v>
       </c>
       <c r="C77" s="69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D77" s="69"/>
       <c r="E77" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F77" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G77" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H77" s="63" t="s">
         <v>59</v>
@@ -15871,23 +14933,23 @@
     </row>
     <row r="78" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B78" s="80">
         <v>75</v>
       </c>
       <c r="C78" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D78" s="69"/>
       <c r="E78" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F78" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G78" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H78" s="63" t="s">
         <v>59</v>
@@ -15901,23 +14963,23 @@
     </row>
     <row r="79" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B79" s="80">
         <v>76</v>
       </c>
       <c r="C79" s="69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D79" s="69"/>
       <c r="E79" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G79" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H79" s="63" t="s">
         <v>59</v>
@@ -15931,23 +14993,23 @@
     </row>
     <row r="80" spans="1:12" s="66" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="63" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B80" s="80">
         <v>77</v>
       </c>
       <c r="C80" s="69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D80" s="69"/>
       <c r="E80" s="69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="82" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G80" s="82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H80" s="63" t="s">
         <v>59</v>
@@ -15961,23 +15023,23 @@
     </row>
     <row r="81" spans="1:12" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="86" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="131">
+        <v>123</v>
+      </c>
+      <c r="B81" s="95">
         <v>78</v>
       </c>
       <c r="C81" s="87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="88" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G81" s="88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H81" s="86" t="s">
         <v>59</v>
@@ -15989,151 +15051,11 @@
       <c r="K81" s="86"/>
       <c r="L81" s="90"/>
     </row>
-    <row r="82" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="B82" s="133">
-        <v>79</v>
-      </c>
-      <c r="C82" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D82" s="72"/>
-      <c r="E82" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F82" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G82" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H82" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" s="84"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="85"/>
-    </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" s="80">
-        <v>80</v>
-      </c>
-      <c r="C83" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G83" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H83" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I83" s="68"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="64"/>
-    </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B84" s="80">
-        <v>81</v>
-      </c>
-      <c r="C84" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D84" s="72"/>
-      <c r="E84" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="F84" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G84" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H84" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I84" s="68"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="63"/>
-      <c r="L84" s="64"/>
-    </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B85" s="80">
-        <v>82</v>
-      </c>
-      <c r="C85" s="69" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="72"/>
-      <c r="E85" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F85" s="82" t="s">
-        <v>136</v>
-      </c>
-      <c r="G85" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I85" s="68"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="63"/>
-      <c r="L85" s="64"/>
-    </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="86" t="s">
-        <v>133</v>
-      </c>
-      <c r="B86" s="131">
-        <v>83</v>
-      </c>
-      <c r="C86" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="D86" s="132"/>
-      <c r="E86" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="F86" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="G86" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="H86" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="I86" s="89"/>
-      <c r="J86" s="90"/>
-      <c r="K86" s="86"/>
-      <c r="L86" s="90"/>
-    </row>
-    <row r="87" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="I87" s="67"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I88" s="67"/>
+    <row r="82" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I82" s="67"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I83" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -16142,13 +15064,13 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:D67 D22 D26:D35 D43:D51 D70:D73 D4:D12 D15:D18 D77 D81:D86 D38:D39 D54:D55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D59:D67 D22 D26:D35 D43:D51 D70:D73 D4:D12 D15:D18 D77 D81 D38:D39 D54:D55">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I89:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I84:I1048576">
       <formula1>$P$3:$P$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I83">
       <formula1>$P$3:$P$4</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576">
@@ -16179,11 +15101,11 @@
     <col min="5" max="5" width="7.21875" style="13" customWidth="1"/>
     <col min="6" max="6" width="1.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="7.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="13" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" style="13" customWidth="1"/>
     <col min="11" max="11" width="3.21875" style="13" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" style="13" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" style="13" customWidth="1"/>
     <col min="15" max="15" width="6.21875" style="13" customWidth="1"/>
@@ -16192,40 +15114,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="122"/>
-      <c r="G1" s="120" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="123"/>
+      <c r="G1" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="123"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="124"/>
-      <c r="L2" s="124"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="125"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="126"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="126"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -16267,16 +15189,16 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -16294,9 +15216,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -16342,17 +15264,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="117"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -16361,7 +15283,7 @@
         <v>37</v>
       </c>
       <c r="C9" s="38">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -16369,28 +15291,28 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="128"/>
+      <c r="N9" s="129"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C10" s="39">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
       <c r="G10" s="33"/>
       <c r="H10" s="58" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="I10" s="59" t="s">
         <v>48</v>
@@ -16400,7 +15322,7 @@
       </c>
       <c r="K10" s="17"/>
       <c r="L10" s="57" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="M10" s="60" t="s">
         <v>48</v>
@@ -16479,7 +15401,7 @@
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="56" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="26"/>
@@ -16493,7 +15415,7 @@
       <c r="E14" s="18"/>
       <c r="G14" s="20"/>
       <c r="H14" s="59" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="26"/>
@@ -16748,7 +15670,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16765,7 +15687,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16780,10 +15702,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="130"/>
+      <c r="C2" s="131"/>
       <c r="D2" s="75" t="s">
         <v>75</v>
       </c>
@@ -16816,10 +15738,10 @@
       <c r="C4" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="129" t="s">
+      <c r="E4" s="130" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="77" t="s">
@@ -16833,8 +15755,8 @@
       <c r="C5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="D5" s="130"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="77" t="s">
         <v>82</v>
       </c>
@@ -16905,8 +15827,8 @@
   </sheetPr>
   <dimension ref="C2:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16951,7 +15873,7 @@
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C80" s="74" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
